--- a/paper_figures/data/PDB_ID_list.xlsx
+++ b/paper_figures/data/PDB_ID_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0319ceb9cba0678/Documents/batman_resub/paper_figures/figure_3/3c/pdb_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmeyer/projects/BATMAN-paper/paper_figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10487E699A6F625BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF34B70-20F1-48BE-8752-4309EC37A855}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870C972-149D-E14B-A7F8-A636C317BE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="760" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>7na5</t>
   </si>
   <si>
-    <t>3uts</t>
-  </si>
-  <si>
     <t>7rk7</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>6cql</t>
+  </si>
+  <si>
+    <t>3utt</t>
   </si>
 </sst>
 </file>
@@ -451,12 +451,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -484,7 +484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -498,7 +498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -512,7 +512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -526,7 +526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -551,10 +551,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -565,10 +565,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -579,7 +579,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
